--- a/file/excel.xlsx
+++ b/file/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ローカルで新規作成</t>
     <rPh sb="5" eb="7">
@@ -33,6 +33,13 @@
       <t>ハ</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルで更新</t>
+    <rPh sb="5" eb="7">
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -379,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -397,6 +404,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
